--- a/results.xlsx
+++ b/results.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="16060" windowWidth="25600" xWindow="11900" yWindow="100"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="16060" windowWidth="25600" xWindow="21320" yWindow="2620"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +29,22 @@
       <family val="2"/>
       <color rgb="FFFF0000"/>
       <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="11"/>
+      <sz val="12"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,15 +65,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -389,10 +409,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -418,6 +438,11 @@
           <t>correct</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -436,6 +461,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -454,6 +484,11 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -472,6 +507,11 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -490,7 +530,12 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SCARED</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -513,6 +558,11 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SAD</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -531,6 +581,11 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -549,6 +604,11 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -567,7 +627,12 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>x</t>
         </is>
@@ -590,6 +655,11 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -608,6 +678,11 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -626,6 +701,11 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -644,6 +724,11 @@
       <c r="D13" t="b">
         <v>0</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -662,6 +747,11 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -680,6 +770,11 @@
       <c r="D15" t="b">
         <v>0</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SCARED</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -698,6 +793,11 @@
       <c r="D16" t="b">
         <v>1</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -716,6 +816,11 @@
       <c r="D17" t="b">
         <v>0</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -734,6 +839,11 @@
       <c r="D18" t="b">
         <v>0</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ANGRY</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -752,6 +862,11 @@
       <c r="D19" t="b">
         <v>0</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SAD</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -770,6 +885,11 @@
       <c r="D20" t="b">
         <v>1</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ANGRY</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -788,6 +908,11 @@
       <c r="D21" t="b">
         <v>1</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -806,6 +931,11 @@
       <c r="D22" t="b">
         <v>0</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -824,6 +954,11 @@
       <c r="D23" t="b">
         <v>0</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SCARED</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -842,6 +977,11 @@
       <c r="D24" t="b">
         <v>1</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -860,6 +1000,11 @@
       <c r="D25" t="b">
         <v>0</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SAD</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -878,6 +1023,11 @@
       <c r="D26" t="b">
         <v>1</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -896,6 +1046,11 @@
       <c r="D27" t="b">
         <v>1</v>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -916,6 +1071,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>SCARED</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -937,6 +1097,11 @@
       <c r="D29" t="b">
         <v>1</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -955,6 +1120,11 @@
       <c r="D30" t="b">
         <v>0</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -973,6 +1143,11 @@
       <c r="D31" t="b">
         <v>1</v>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -991,6 +1166,11 @@
       <c r="D32" t="b">
         <v>0</v>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SCARED</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1009,6 +1189,11 @@
       <c r="D33" t="b">
         <v>1</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1027,6 +1212,11 @@
       <c r="D34" t="b">
         <v>1</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1045,6 +1235,11 @@
       <c r="D35" t="b">
         <v>0</v>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ANGRY</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1063,6 +1258,11 @@
       <c r="D36" t="b">
         <v>0</v>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SAD</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1083,6 +1283,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>SAD</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -1104,6 +1309,11 @@
       <c r="D38" t="b">
         <v>1</v>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1122,6 +1332,11 @@
       <c r="D39" t="b">
         <v>1</v>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1140,6 +1355,11 @@
       <c r="D40" t="b">
         <v>1</v>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1152,6 +1372,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -1173,6 +1398,11 @@
       <c r="D42" t="b">
         <v>0</v>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1191,6 +1421,11 @@
       <c r="D43" t="b">
         <v>1</v>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1209,6 +1444,11 @@
       <c r="D44" t="b">
         <v>1</v>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1227,6 +1467,11 @@
       <c r="D45" t="b">
         <v>0</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1245,6 +1490,11 @@
       <c r="D46" t="b">
         <v>0</v>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1263,6 +1513,11 @@
       <c r="D47" t="b">
         <v>1</v>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SAD</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1281,6 +1536,11 @@
       <c r="D48" t="b">
         <v>1</v>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1299,6 +1559,11 @@
       <c r="D49" t="b">
         <v>1</v>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1319,6 +1584,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>SAD</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -1340,6 +1610,11 @@
       <c r="D51" t="b">
         <v>1</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1358,6 +1633,11 @@
       <c r="D52" t="b">
         <v>0</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ANGRY</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1376,6 +1656,11 @@
       <c r="D53" t="b">
         <v>1</v>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1394,6 +1679,11 @@
       <c r="D54" t="b">
         <v>0</v>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SAD</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1412,6 +1702,11 @@
       <c r="D55" t="b">
         <v>0</v>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1430,6 +1725,11 @@
       <c r="D56" t="b">
         <v>1</v>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1448,6 +1748,11 @@
       <c r="D57" t="b">
         <v>0</v>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SAD</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1466,6 +1771,11 @@
       <c r="D58" t="b">
         <v>0</v>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SCARED</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1478,6 +1788,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -1499,6 +1814,11 @@
       <c r="D60" t="b">
         <v>1</v>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1517,6 +1837,11 @@
       <c r="D61" t="b">
         <v>1</v>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1535,6 +1860,11 @@
       <c r="D62" t="b">
         <v>0</v>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ANGRY</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1555,6 +1885,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>SCARED</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -1578,6 +1913,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>SAD</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -1599,6 +1939,11 @@
       <c r="D65" t="b">
         <v>1</v>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1617,6 +1962,11 @@
       <c r="D66" t="b">
         <v>1</v>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1635,6 +1985,11 @@
       <c r="D67" t="b">
         <v>1</v>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1653,6 +2008,11 @@
       <c r="D68" t="b">
         <v>0</v>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SAD</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1671,6 +2031,11 @@
       <c r="D69" t="b">
         <v>1</v>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1689,6 +2054,11 @@
       <c r="D70" t="b">
         <v>1</v>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1707,6 +2077,11 @@
       <c r="D71" t="b">
         <v>1</v>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1725,6 +2100,11 @@
       <c r="D72" t="b">
         <v>1</v>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1743,6 +2123,11 @@
       <c r="D73" t="b">
         <v>0</v>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1761,6 +2146,11 @@
       <c r="D74" t="b">
         <v>0</v>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SCARED</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1779,6 +2169,11 @@
       <c r="D75" t="b">
         <v>1</v>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1797,6 +2192,11 @@
       <c r="D76" t="b">
         <v>1</v>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1815,6 +2215,11 @@
       <c r="D77" t="b">
         <v>1</v>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1833,6 +2238,11 @@
       <c r="D78" t="b">
         <v>1</v>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1851,6 +2261,11 @@
       <c r="D79" t="b">
         <v>0</v>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SCARED</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1869,6 +2284,11 @@
       <c r="D80" t="b">
         <v>0</v>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1889,6 +2309,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -1910,6 +2335,11 @@
       <c r="D82" t="b">
         <v>1</v>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1922,6 +2352,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -1943,6 +2378,11 @@
       <c r="D84" t="b">
         <v>0</v>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SCARED</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1961,6 +2401,11 @@
       <c r="D85" t="b">
         <v>1</v>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1979,6 +2424,11 @@
       <c r="D86" t="b">
         <v>1</v>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1991,6 +2441,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -2012,6 +2467,11 @@
       <c r="D88" t="b">
         <v>0</v>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>SCARED</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2030,6 +2490,11 @@
       <c r="D89" t="b">
         <v>1</v>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2048,6 +2513,11 @@
       <c r="D90" t="b">
         <v>1</v>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2066,6 +2536,11 @@
       <c r="D91" t="b">
         <v>1</v>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2084,6 +2559,11 @@
       <c r="D92" t="b">
         <v>1</v>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2102,6 +2582,11 @@
       <c r="D93" t="b">
         <v>1</v>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2120,6 +2605,11 @@
       <c r="D94" t="b">
         <v>0</v>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>ANGRY</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2138,6 +2628,11 @@
       <c r="D95" t="b">
         <v>1</v>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2156,6 +2651,11 @@
       <c r="D96" t="b">
         <v>1</v>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2174,6 +2674,11 @@
       <c r="D97" t="b">
         <v>1</v>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2192,6 +2697,11 @@
       <c r="D98" t="b">
         <v>1</v>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2210,6 +2720,11 @@
       <c r="D99" t="b">
         <v>1</v>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2228,6 +2743,11 @@
       <c r="D100" t="b">
         <v>0</v>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>SAD</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2246,6 +2766,11 @@
       <c r="D101" t="b">
         <v>1</v>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2264,6 +2789,11 @@
       <c r="D102" t="b">
         <v>1</v>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2282,6 +2812,11 @@
       <c r="D103" t="b">
         <v>1</v>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2300,6 +2835,11 @@
       <c r="D104" t="b">
         <v>1</v>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2318,6 +2858,11 @@
       <c r="D105" t="b">
         <v>0</v>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>ANGRY</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2338,6 +2883,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
+          <t>SCARED</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -2359,6 +2909,11 @@
       <c r="D107" t="b">
         <v>1</v>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2377,6 +2932,11 @@
       <c r="D108" t="b">
         <v>1</v>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2395,6 +2955,11 @@
       <c r="D109" t="b">
         <v>0</v>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>SAD</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2413,6 +2978,11 @@
       <c r="D110" t="b">
         <v>1</v>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2431,6 +3001,11 @@
       <c r="D111" t="b">
         <v>1</v>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2451,6 +3026,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
+          <t>SCARED</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -2472,6 +3052,11 @@
       <c r="D113" t="b">
         <v>1</v>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2492,6 +3077,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
+          <t>SAD</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
           <t>x</t>
         </is>
       </c>
@@ -2513,6 +3103,11 @@
       <c r="D115" t="b">
         <v>1</v>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2531,6 +3126,11 @@
       <c r="D116" t="b">
         <v>0</v>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>ANGRY</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2549,6 +3149,11 @@
       <c r="D117" t="b">
         <v>0</v>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>SCARED</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2567,6 +3172,11 @@
       <c r="D118" t="b">
         <v>0</v>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>SCARED</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2585,6 +3195,11 @@
       <c r="D119" t="b">
         <v>1</v>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2603,6 +3218,11 @@
       <c r="D120" t="b">
         <v>1</v>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>HAPPY</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2621,6 +3241,11 @@
       <c r="D121" t="b">
         <v>1</v>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2639,6 +3264,11 @@
       <c r="D122" t="b">
         <v>1</v>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2657,6 +3287,11 @@
       <c r="D123" t="b">
         <v>0</v>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>SAD</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2675,6 +3310,11 @@
       <c r="D124" t="b">
         <v>0</v>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2693,6 +3333,11 @@
       <c r="D125" t="b">
         <v>1</v>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2711,6 +3356,11 @@
       <c r="D126" t="b">
         <v>1</v>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>ANGRY</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2729,6 +3379,11 @@
       <c r="D127" t="b">
         <v>1</v>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2747,6 +3402,11 @@
       <c r="D128" t="b">
         <v>1</v>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2765,8 +3425,14 @@
       <c r="D129" t="b">
         <v>0</v>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>ANGRY</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
 </worksheet>
 </file>